--- a/choliss/設計書/貯リッス設計書.xlsx
+++ b/choliss/設計書/貯リッス設計書.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="15075" windowHeight="4680"/>
@@ -11,13 +11,14 @@
     <sheet name="カレンダー画面" sheetId="2" r:id="rId2"/>
     <sheet name="各種設定画面" sheetId="3" r:id="rId3"/>
     <sheet name="今いくら画面" sheetId="4" r:id="rId4"/>
+    <sheet name="設定情報" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
   <si>
     <t>りす貯金　概要設計書</t>
   </si>
@@ -392,13 +393,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>通知</t>
-    <rPh sb="0" eb="2">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>時間が指定できるコントロール</t>
     <rPh sb="0" eb="2">
       <t>ジカン</t>
@@ -484,6 +478,590 @@
     <rPh sb="0" eb="1">
       <t>エン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設定情報はプリファレンスに保存</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>例</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標金額</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標期間（開始）</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標期間（終了）</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウキカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>通知時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>01:01:00</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>goal_kingaku</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kikan_end</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>kikan_start</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alert_time</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日常的に登録する情報はSQLiteに保存</t>
+    <rPh sb="0" eb="3">
+      <t>ニチジョウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>day_kingaku_tbl</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付ごとの金額</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>貯金フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>day_kingaku</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>chokin_flg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テーブル名(論理)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テーブル名(物理)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付ごとの金額テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>オーロラ旅行</t>
+    <rPh sb="4" eb="6">
+      <t>リョコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標情報をプリファレンスに設定して、日付ごとの金額をSQLiteに保存する。</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>通知ON・OFF</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>通知フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>alert_flg</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時々、他の動物を出す。（例：うさぎ）</t>
+    <rPh sb="0" eb="2">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>●メモ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>→初期起動時とヘルプボタン押下時に表示させる。</t>
+    <rPh sb="1" eb="6">
+      <t>ショキキドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>初期起動時、使い方画面は設定画面の上にダイアログで表示する。</t>
+    <rPh sb="0" eb="5">
+      <t>ショキキドウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パッケージ構成</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パッケージ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>app.choliss.activity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アクティビティクラスを配置する</t>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SplashActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>スプラッシュ画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MenuActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>HowToActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>使い方画面</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MonthCalenderActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>月間カレンダー画面</t>
+    <rPh sb="0" eb="2">
+      <t>ゲッカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>YearCalenderActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>年間カレンダー画面</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※保留</t>
+    <rPh sb="1" eb="3">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SettingActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ResultActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>今いくら画面</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SuccessActivity</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標達成画面</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>app.choliss.fragment</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フラグメントクラスを配置する</t>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentSplash</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentMenu</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentHowTo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentMonthCalender</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentYearCalender</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentSetting</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentResult</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FragmentSuccess</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>app.choliss.data</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>データクラスを配置する</t>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DayKingakuTbl</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付ごと金額テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GoalInfo</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>目標情報</t>
+    <rPh sb="0" eb="4">
+      <t>モクヒョウジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>app.choliss.common</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQLiteアクセス</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -491,7 +1069,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,8 +1112,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +1161,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -717,13 +1330,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +1364,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,33 +1472,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,15 +1481,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,15 +1490,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,48 +1499,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,7 +1520,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2195,13 +2844,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2248,26 +2897,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="14058900"/>
-          <a:ext cx="2276475" cy="247650"/>
+          <a:off x="2657475" y="4295775"/>
+          <a:ext cx="714375" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2275,18 +2924,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2296,9 +2943,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>貯金をリセットする</a:t>
+            <a:t>決定</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2718,13 +3364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="20.25">
       <c r="A2" s="1" t="s">
@@ -2786,24 +3436,236 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:4">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:4">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:4">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:4">
       <c r="B20" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="62" customFormat="1" ht="17.25">
+      <c r="A27" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +3679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AG55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA38" sqref="AA38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <sheetData>
@@ -2828,464 +3692,467 @@
     </row>
     <row r="4" spans="2:33" ht="14.25" thickBot="1"/>
     <row r="5" spans="2:33">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
       <c r="T5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:33" ht="14.25" thickBot="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="2:33">
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10">
+      <c r="E7" s="5"/>
+      <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10">
+      <c r="G7" s="5"/>
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10">
+      <c r="I7" s="5"/>
+      <c r="J7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10">
+      <c r="K7" s="5"/>
+      <c r="L7" s="4">
         <v>6</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10">
+      <c r="M7" s="5"/>
+      <c r="N7" s="4">
         <v>7</v>
       </c>
-      <c r="O7" s="11"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:33" ht="14.25" thickBot="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="11"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="5"/>
       <c r="Y10" t="s">
         <v>18</v>
       </c>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="11"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="5"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="7"/>
       <c r="Z11" t="s">
         <v>19</v>
       </c>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="13"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="2:33" ht="14.25" thickBot="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="13"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="7"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="2:33">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="13"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="13"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="7"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="2:33">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="13"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="13"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="7"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="2:33" ht="14.25" thickBot="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="15"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="15"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="9"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="9"/>
     </row>
     <row r="16" spans="2:33">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:30">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
       <c r="AD17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:30" ht="14.25" thickBot="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="AD18" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="2:30">
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:30">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="2:30" ht="14.25" thickBot="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:30">
-      <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:30">
-      <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="2:30">
-      <c r="B24" s="12"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="2:30" ht="14.25" thickBot="1">
-      <c r="B25" s="12"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="13"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="2:30">
-      <c r="B26" s="10"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="11"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:30">
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="13"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="2:30" ht="14.25" thickBot="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="15"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="31" spans="2:30" ht="14.25" thickBot="1">
       <c r="B31" t="s">
@@ -3293,424 +4160,429 @@
       </c>
     </row>
     <row r="32" spans="2:30">
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="6"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="36"/>
     </row>
     <row r="33" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
     </row>
     <row r="34" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C34" s="10"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="11"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="5"/>
     </row>
     <row r="35" spans="3:33">
-      <c r="C35" s="12"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="22" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="22" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="13"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="7"/>
       <c r="S35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:33">
-      <c r="C36" s="12"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="13"/>
-      <c r="AG36" s="17"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="7"/>
+      <c r="AG36" s="11"/>
     </row>
     <row r="37" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C37" s="12"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="13"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="7"/>
     </row>
     <row r="38" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C38" s="12"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="13"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="7"/>
     </row>
     <row r="39" spans="3:33">
-      <c r="C39" s="12"/>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="22" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="22" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="23"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="13"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="7"/>
     </row>
     <row r="40" spans="3:33">
-      <c r="C40" s="12"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="13"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="7"/>
     </row>
     <row r="41" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C41" s="12"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="13"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="7"/>
     </row>
     <row r="42" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C42" s="12"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="13"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="7"/>
     </row>
     <row r="43" spans="3:33">
-      <c r="C43" s="12"/>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="22" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="22" t="s">
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="13"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="7"/>
     </row>
     <row r="44" spans="3:33">
-      <c r="C44" s="12"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="13"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="7"/>
     </row>
     <row r="45" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C45" s="12"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="13"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="7"/>
     </row>
     <row r="46" spans="3:33" ht="14.25" thickBot="1">
-      <c r="C46" s="12"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="13"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="7"/>
     </row>
     <row r="47" spans="3:33">
-      <c r="C47" s="12"/>
-      <c r="D47" s="22" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="22" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="37" t="s">
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="M47" s="38"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="13"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="7"/>
       <c r="R47" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="3:33">
-      <c r="C48" s="12"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="13"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="7"/>
     </row>
     <row r="49" spans="3:16" ht="14.25" thickBot="1">
-      <c r="C49" s="12"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="13"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="7"/>
     </row>
     <row r="50" spans="3:16">
-      <c r="C50" s="12"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="13"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="7"/>
     </row>
     <row r="51" spans="3:16">
-      <c r="C51" s="12"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="13"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="7"/>
     </row>
     <row r="52" spans="3:16" ht="14.25" thickBot="1">
-      <c r="C52" s="12"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="13"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="7"/>
     </row>
     <row r="53" spans="3:16">
-      <c r="C53" s="10"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="11"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="5"/>
     </row>
     <row r="54" spans="3:16">
-      <c r="C54" s="12"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="13"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="7"/>
     </row>
     <row r="55" spans="3:16" ht="14.25" thickBot="1">
-      <c r="C55" s="14"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="15"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:O6"/>
+    <mergeCell ref="C32:P33"/>
+    <mergeCell ref="D35:F37"/>
+    <mergeCell ref="H35:J37"/>
+    <mergeCell ref="L35:N37"/>
     <mergeCell ref="D47:F49"/>
     <mergeCell ref="H47:J49"/>
     <mergeCell ref="L47:N49"/>
@@ -3720,11 +4592,6 @@
     <mergeCell ref="D43:F45"/>
     <mergeCell ref="H43:J45"/>
     <mergeCell ref="L43:N45"/>
-    <mergeCell ref="B5:O6"/>
-    <mergeCell ref="C32:P33"/>
-    <mergeCell ref="D35:F37"/>
-    <mergeCell ref="H35:J37"/>
-    <mergeCell ref="L35:N37"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3734,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:U27"/>
+  <dimension ref="C2:U31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F20" sqref="F20:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -3749,428 +4616,510 @@
     </row>
     <row r="3" spans="3:20" ht="14.25" thickBot="1"/>
     <row r="4" spans="3:20">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
     </row>
     <row r="5" spans="3:20" ht="14.25" thickBot="1">
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="E6" s="10"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="3:20">
-      <c r="E7" s="12"/>
-      <c r="F7" s="46" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="3:20">
-      <c r="E8" s="12"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="13"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="3:20">
-      <c r="E9" s="12"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="46" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="3:20">
-      <c r="E10" s="12"/>
-      <c r="F10" s="47" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="3:20">
-      <c r="E11" s="12"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="13"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="7"/>
       <c r="T11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:20">
-      <c r="E12" s="12"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="3:20">
-      <c r="E13" s="12"/>
-      <c r="F13" s="46" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="E14" s="12"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="13"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="3:20">
-      <c r="E15" s="12"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="47" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="7"/>
       <c r="T15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="3:20">
-      <c r="E16" s="12"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="13"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="5:21">
-      <c r="E17" s="12"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="13"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="5:21">
-      <c r="E18" s="12"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="47" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="5:21">
-      <c r="E19" s="12"/>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="5:21">
+      <c r="E20" s="6"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="7"/>
+      <c r="T20" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="5:21">
-      <c r="E20" s="12"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="13"/>
-      <c r="T20" t="s">
+    </row>
+    <row r="21" spans="5:21">
+      <c r="E21" s="6"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="7"/>
+      <c r="T21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="5:21">
-      <c r="E21" s="12"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="13"/>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>50</v>
       </c>
-      <c r="U21" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="22" spans="5:21">
-      <c r="E22" s="12"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="13"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="5:21">
-      <c r="E23" s="12"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="5:21" ht="14.25" thickBot="1">
-      <c r="E24" s="12"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="13"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="5:21">
+      <c r="E24" s="6"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="7"/>
+      <c r="T24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="5:21">
-      <c r="E25" s="10"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="11"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="7"/>
+      <c r="T25" t="s">
+        <v>49</v>
+      </c>
+      <c r="U25" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="5:21">
-      <c r="E26" s="12"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="5:21" ht="14.25" thickBot="1">
-      <c r="E27" s="14"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="15"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="5:21">
+      <c r="E27" s="6"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="5:21" ht="14.25" thickBot="1">
+      <c r="E28" s="6"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="5:21">
+      <c r="E29" s="4"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="5:21">
+      <c r="E30" s="6"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="7"/>
+      <c r="T30" t="s">
+        <v>95</v>
+      </c>
+      <c r="U30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="5:21" ht="14.25" thickBot="1">
+      <c r="E31" s="8"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="F20:L21"/>
+    <mergeCell ref="F24:L25"/>
     <mergeCell ref="E4:R5"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:Q12"/>
     <mergeCell ref="F14:L15"/>
     <mergeCell ref="F17:L18"/>
-    <mergeCell ref="F20:L21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4183,413 +5132,413 @@
   <dimension ref="B2:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
+    </row>
+    <row r="5" spans="2:19" ht="14.25" thickBot="1">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="39"/>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="D6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="2:19" ht="14.25" thickBot="1">
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="D6" s="10"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="D7" s="12"/>
-      <c r="E7" s="46" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="D10" s="6"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="D8" s="12"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="D9" s="12"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="D10" s="12"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="47" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="D12" s="6"/>
+      <c r="E12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="D11" s="12"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="D12" s="12"/>
-      <c r="E12" s="55" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="7"/>
+      <c r="S12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="13"/>
-      <c r="S12" t="s">
+    </row>
+    <row r="13" spans="2:19">
+      <c r="D13" s="6"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="D14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="D15" s="6"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="D13" s="12"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="D14" s="12"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="D15" s="12"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="D16" s="12"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="4:17">
-      <c r="D17" s="12"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="13"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="4:17">
-      <c r="D18" s="12"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="13"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="4:17">
-      <c r="D19" s="12"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="13"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="4:17">
-      <c r="D20" s="12"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="13"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="4:17">
-      <c r="D21" s="12"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="13"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="4:17">
-      <c r="D22" s="12"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="13"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="4:17">
-      <c r="D23" s="12"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="13"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="4:17" ht="14.25" thickBot="1">
-      <c r="D24" s="12"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="13"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="4:17">
-      <c r="D25" s="10"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="4:17">
-      <c r="D26" s="12"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="13"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="4:17" ht="14.25" thickBot="1">
-      <c r="D27" s="14"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="15"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4601,4 +5550,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="56">
+        <v>10</v>
+      </c>
+      <c r="H4" s="56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="56">
+        <v>2</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="56"/>
+      <c r="H5" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="56">
+        <v>3</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="56"/>
+      <c r="H6" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="56">
+        <v>4</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="56">
+        <v>4</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="56">
+        <v>5</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="56">
+        <v>20</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="56">
+        <v>6</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="56">
+        <v>7</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="56">
+        <v>8</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="56">
+        <v>9</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="56">
+        <v>10</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" s="56">
+        <v>1</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="56">
+        <v>10</v>
+      </c>
+      <c r="H22" s="56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="56">
+        <v>2</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="56">
+        <v>3</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="56">
+        <v>4</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="56">
+        <v>5</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="56">
+        <v>6</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="56">
+        <v>7</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="56">
+        <v>8</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="56">
+        <v>9</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="56">
+        <v>10</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>